--- a/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>31,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>71,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>175,66%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 19,61</t>
+          <t>-3,83; 34,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 22,34</t>
+          <t>-7,28; 36,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 15,31</t>
+          <t>-41,31; 18,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 101,31</t>
+          <t>12,93; 54,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 105,5</t>
+          <t>-11,99; 294,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 63,41</t>
+          <t>-19,31; 230,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-64,67; 59,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 699,83</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>34,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>75,92%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 6,37</t>
+          <t>-17,8; 7,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 19,57</t>
+          <t>-0,73; 22,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 14,71</t>
+          <t>-5,15; 16,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 22,16</t>
+          <t>6,81; 27,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 72,64</t>
+          <t>-39,6; 24,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 46,66</t>
+          <t>-2,39; 86,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 67,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 162,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>33,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 12,19</t>
+          <t>-6,43; 15,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 17,99</t>
+          <t>-1,25; 21,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 9,11</t>
+          <t>-11,05; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 50,51</t>
+          <t>-6,31; 18,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 69,35</t>
+          <t>-18,27; 64,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 28,64</t>
+          <t>-4,88; 94,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,58; 37,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; 70,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 26,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 59,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 26,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 9,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 17,71</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 10,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 24,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 36,66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 67,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 35,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 116,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>31,9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>71,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,21%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-13,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>175,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.86821845156516</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.42506380349896</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.222027804569455</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>30.78243518680777</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.4259914616900536</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3860711057535578</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.06763021744704537</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.632459762921629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 34,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 36,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-41,31; 18,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,93; 54,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; 294,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,31; 230,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-64,67; 59,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42,75; 699,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.615641498019373</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.749130521665904</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-37.53010205346688</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>11.19572914652098</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2885865228014291</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2586363312776808</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5987378670823548</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3148703629067749</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.23739984577376</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>34.92602881836212</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.65087209005343</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>53.3089929281055</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.158757549480854</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.040475729218808</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7229104310778018</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.746998127915468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>75,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,8; 7,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 22,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 16,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 27,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-39,6; 24,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 86,88</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; 67,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>22,48; 162,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.043926000509705</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.4468319763133</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.677338346568185</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16.34244163842934</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.05914387060015582</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3408489885993751</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2589499658757942</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7279863243358872</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,7%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>33,9%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.02826176778815</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2034450540092481</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.423243463178402</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.989093289388365</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3573648563470719</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.008469118414053779</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06877768288031011</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1996654809088335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 15,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 21,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 10,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 18,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 64,88</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 94,05</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,58; 37,9</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-17,15; 70,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.022643414929934</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.53927287536768</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.18203618935885</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.14693384684269</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3217373027431988</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8909615603758515</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8453205352751859</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.598996233250282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.121050632396461</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.597318804154304</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5878577204613711</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.636006149152468</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1437775754072301</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3294029046529791</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01674927392318154</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2088413041854687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.233240628672235</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.542222761687845</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.37441060048772</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.074081925509811</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2164366738361196</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.06340452628457093</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2651766781288881</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1550232730784046</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.94535223629394</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.09333931770378</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.85416778198674</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.43027656182942</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.7031031608127827</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9120831586896975</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3785224284203694</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7515465484923882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,09</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>35,07%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 9,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 17,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 10,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 24,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 36,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 67,0</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,28; 35,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>29,07; 116,72</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.128956316093928</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.51109149957691</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.752808028979004</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>15.85638639207716</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06863468475355179</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3344431032199669</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1102576855774338</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6354326637662773</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.830238436764863</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.060626594851764</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.33632594895834</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.853284685308029</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1677652495861763</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.0514681333247667</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1396949405913327</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2625549760568134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.36691133682002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.19360290715323</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.01105332583835</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>23.90245754435066</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3856228369464</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6175877652448292</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.419687069690771</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.12245006636396</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
